--- a/node/hahaha.xlsx
+++ b/node/hahaha.xlsx
@@ -4,25 +4,58 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Sheet" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="差评" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>D.O.B.</t>
-  </si>
-  <si>
-    <t>John Doe</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>追评</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>品种</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>处理进度</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>2021/03/24 20:55</t>
+  </si>
+  <si>
+    <t>骆艳520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前前后后买了挺多次，这次确实苗情太差，第一苗子已经到了花开败得时候了，第二开败了的花头已经生霉，找到客服让我自己修剪一下，海妈能把苗圃做到这样不容易也是靠我们爱华人士得支持的，这样来忽悠一个老客户有点让人不舒服。 </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>海蒂的花园  鬼针草好养易爆盆草花海妈花园植物阳台庭院花卉盆栽</t>
   </si>
 </sst>
 </file>
@@ -58,8 +91,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -79,14 +115,14 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor editAs="undefined">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381000" cy="381000"/>
+    <xdr:ext cx="285750" cy="381000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Picture 1">
@@ -443,103 +479,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:J2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="10" outlineLevel="1" collapsed="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="10" width="15" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
